--- a/data/trans_bre/POLIPATOLOGIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 20,55</t>
+          <t>12,43; 20,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,64</t>
+          <t>10,54; 19,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,53; 23,53</t>
+          <t>14,76; 23,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 20,58</t>
+          <t>11,16; 20,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,97; 56,37</t>
+          <t>30,59; 56,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,79; 40,49</t>
+          <t>20,54; 42,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 56,71</t>
+          <t>31,24; 56,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 38,99</t>
+          <t>18,95; 39,33</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,58</t>
+          <t>6,2; 11,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,06</t>
+          <t>6,63; 12,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,69</t>
+          <t>6,2; 11,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 24,64</t>
+          <t>9,2; 23,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,21; 114,61</t>
+          <t>52,05; 115,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,7; 84,74</t>
+          <t>39,34; 82,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,59; 69,96</t>
+          <t>31,69; 69,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,21; 86,86</t>
+          <t>30,72; 83,21</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 11,9</t>
+          <t>3,01; 12,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,92</t>
+          <t>4,01; 14,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 7,12</t>
+          <t>-2,82; 6,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 14,63</t>
+          <t>5,25; 14,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 122,22</t>
+          <t>22,42; 132,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,42; 161,21</t>
+          <t>28,74; 158,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 45,78</t>
+          <t>-14,96; 42,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 60,55</t>
+          <t>17,02; 59,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,89</t>
+          <t>11,64; 16,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 16,69</t>
+          <t>12,11; 16,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 14,58</t>
+          <t>10,0; 14,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 21,29</t>
+          <t>12,51; 20,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,13; 84,93</t>
+          <t>55,85; 85,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,16; 72,45</t>
+          <t>48,2; 71,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,14; 64,62</t>
+          <t>40,43; 64,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,75; 64,56</t>
+          <t>36,85; 64,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,43; 20,53</t>
+          <t>12,54; 20,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,54; 19,12</t>
+          <t>10,03; 18,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 23,49</t>
+          <t>14,57; 23,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,59; 56,37</t>
+          <t>30,08; 54,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,54; 42,14</t>
+          <t>19,24; 40,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,24; 56,64</t>
+          <t>30,75; 57,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,33</t>
+          <t>6,35; 11,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 12,05</t>
+          <t>6,36; 11,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,74</t>
+          <t>6,22; 11,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,05; 115,02</t>
+          <t>52,73; 114,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,34; 82,36</t>
+          <t>37,13; 83,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,69; 69,57</t>
+          <t>32,02; 69,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 12,27</t>
+          <t>2,99; 12,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 14,0</t>
+          <t>4,06; 13,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 6,7</t>
+          <t>-3,12; 7,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,42; 132,23</t>
+          <t>22,14; 135,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,74; 158,05</t>
+          <t>30,17; 153,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 42,25</t>
+          <t>-15,33; 46,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 16,0</t>
+          <t>11,33; 15,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,58</t>
+          <t>12,07; 16,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,77</t>
+          <t>10,06; 14,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,85; 85,4</t>
+          <t>54,26; 84,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,2; 71,43</t>
+          <t>47,76; 71,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,43; 64,7</t>
+          <t>40,37; 64,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/POLIPATOLOGIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,54; 20,26</t>
+          <t>12,6; 20,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 18,71</t>
+          <t>10,63; 18,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 23,71</t>
+          <t>14,53; 23,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,16; 20,8</t>
+          <t>10,87; 20,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,08; 54,98</t>
+          <t>30,97; 56,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 40,4</t>
+          <t>20,79; 40,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,75; 57,24</t>
+          <t>30,47; 56,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,95; 39,33</t>
+          <t>18,23; 38,99</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,48</t>
+          <t>6,47; 11,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,99</t>
+          <t>6,75; 12,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 11,79</t>
+          <t>6,25; 11,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 23,6</t>
+          <t>9,57; 24,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,73; 114,71</t>
+          <t>53,21; 114,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,13; 83,23</t>
+          <t>39,7; 84,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,02; 69,61</t>
+          <t>32,59; 69,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 83,21</t>
+          <t>32,21; 86,86</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 12,25</t>
+          <t>2,37; 11,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,69</t>
+          <t>4,01; 13,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 7,16</t>
+          <t>-3,08; 7,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 14,62</t>
+          <t>5,17; 14,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,14; 135,68</t>
+          <t>17,31; 122,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,17; 153,71</t>
+          <t>28,42; 161,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 46,44</t>
+          <t>-14,61; 45,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,02; 59,64</t>
+          <t>17,31; 60,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,8</t>
+          <t>11,49; 15,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,59</t>
+          <t>11,97; 16,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 14,63</t>
+          <t>10,09; 14,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 20,32</t>
+          <t>12,37; 21,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,26; 84,4</t>
+          <t>55,13; 84,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,76; 71,53</t>
+          <t>47,16; 72,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,37; 64,32</t>
+          <t>40,14; 64,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,85; 64,61</t>
+          <t>35,75; 64,56</t>
         </is>
       </c>
     </row>
